--- a/Labs/DAT215_1/Lab_Solution/Normalization Solution.xlsx
+++ b/Labs/DAT215_1/Lab_Solution/Normalization Solution.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Labfiles\Lab03\Solution\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\geoff\OneDrive\SQL2016Online\GitHubLabs\DAT215_1\Lab_Solution\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="48">
   <si>
     <t>OrderID</t>
   </si>
@@ -69,9 +69,6 @@
     <t>9539 Glenside Drive</t>
   </si>
   <si>
-    <t>ProductID</t>
-  </si>
-  <si>
     <t>CB-2903</t>
   </si>
   <si>
@@ -105,9 +102,6 @@
     <t>BE-2908 (1 x 10.00)</t>
   </si>
   <si>
-    <t>ProductNumber</t>
-  </si>
-  <si>
     <t>Repeating data groups removed</t>
   </si>
   <si>
@@ -121,32 +115,6 @@
   </si>
   <si>
     <t>OrderID (Key)</t>
-  </si>
-  <si>
-    <t>ProductID (Key)</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Product</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Table</t>
-    </r>
   </si>
   <si>
     <r>
@@ -230,9 +198,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">CustomerID </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -259,9 +224,48 @@
     <t>CustomerID</t>
   </si>
   <si>
+    <t>SalesAmount</t>
+  </si>
+  <si>
+    <t>Age column removed as it was transitively dependent on the primary key through the Data of Birth column</t>
+  </si>
+  <si>
+    <t>SalesAmount column added</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Decomposed the </t>
+      <t xml:space="preserve">Orders </t>
     </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>table</t>
+    </r>
+  </si>
+  <si>
+    <t>Product (Key)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Product </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>table</t>
+    </r>
+  </si>
+  <si>
     <r>
       <rPr>
         <b/>
@@ -271,7 +275,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Orders</t>
+      <t>Phone</t>
     </r>
     <r>
       <rPr>
@@ -281,59 +285,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> table to create the </t>
+      <t xml:space="preserve"> Table</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Customers</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> table and a reduced </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Orders</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> table </t>
-    </r>
-  </si>
-  <si>
-    <t>SalesAmount</t>
-  </si>
-  <si>
-    <t>Age column removed as it was transitively dependent on the primary key through the Data of Birth column</t>
-  </si>
-  <si>
-    <t>SalesAmount column added</t>
+  </si>
+  <si>
+    <t>PhoneNumber</t>
+  </si>
+  <si>
+    <t>Phone 1</t>
+  </si>
+  <si>
+    <t>Phone 2</t>
   </si>
 </sst>
 </file>
@@ -488,6 +450,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -523,6 +502,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -678,7 +674,7 @@
   <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,24 +701,29 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="G1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K1" s="1"/>
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
@@ -736,20 +737,26 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>3545435413</v>
+      </c>
+      <c r="E2">
+        <v>36465465436</v>
+      </c>
+      <c r="F2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="6">
+      <c r="G2" s="6">
         <v>25895</v>
       </c>
-      <c r="F2">
+      <c r="H2">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" t="s">
         <v>20</v>
-      </c>
-      <c r="H2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -762,23 +769,29 @@
       <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3">
+        <v>34643434</v>
+      </c>
+      <c r="E3">
+        <v>34134213242</v>
+      </c>
+      <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6">
+      <c r="G3" s="6">
         <v>30148</v>
       </c>
-      <c r="F3">
+      <c r="H3">
         <v>34</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="K3" t="s">
         <v>23</v>
-      </c>
-      <c r="I3" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -791,22 +804,25 @@
       <c r="C4" t="s">
         <v>5</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4">
+        <v>35432434</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="6">
+      <c r="G4" s="6">
         <v>34423</v>
       </c>
-      <c r="F4">
+      <c r="H4">
         <v>22</v>
       </c>
-      <c r="G4" t="s">
-        <v>23</v>
+      <c r="I4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -819,7 +835,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -839,27 +857,27 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>9</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H3" s="7"/>
     </row>
@@ -925,154 +943,159 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D11" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F12" s="4"/>
+        <v>42</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="G12" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>16</v>
-      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13">
+        <v>3545435413</v>
       </c>
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
         <v>12.99</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>36465465436</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F14">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
       <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
         <v>1.5</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>3</v>
-      </c>
-      <c r="B15" t="s">
-        <v>7</v>
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15">
+        <v>34643434</v>
       </c>
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15">
-        <v>2</v>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
         <v>1.5</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" t="s">
         <v>4</v>
       </c>
-      <c r="B16" t="s">
-        <v>8</v>
+      <c r="B16">
+        <v>34134213242</v>
       </c>
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16">
-        <v>3</v>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>1</v>
-      </c>
-      <c r="H16">
         <v>5.99</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17">
+        <v>35432434</v>
+      </c>
       <c r="D17">
         <v>2</v>
       </c>
-      <c r="E17">
-        <v>4</v>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>1</v>
-      </c>
-      <c r="H17">
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>3</v>
       </c>
-      <c r="E18">
-        <v>3</v>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
       </c>
       <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
         <v>5.99</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1082,10 +1105,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:E16"/>
+  <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1096,132 +1119,158 @@
     <col min="4" max="4" width="25.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B1" s="3"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>35</v>
+        <v>28</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>42</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="3">
-        <v>42371</v>
+      <c r="B4" t="s">
+        <v>13</v>
       </c>
       <c r="C4">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5">
         <v>2</v>
       </c>
-      <c r="B5" s="3">
-        <v>42371</v>
-      </c>
-      <c r="C5">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>3</v>
       </c>
-      <c r="B6" s="3">
-        <v>42372</v>
-      </c>
-      <c r="C6">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" s="3"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B13" s="3"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>101</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="B15" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19">
         <v>10</v>
       </c>
-      <c r="D11" s="6">
-        <v>25895</v>
-      </c>
-      <c r="E11">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>163</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="6">
-        <v>30148</v>
-      </c>
-      <c r="E12">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>302</v>
-      </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" s="6">
-        <v>34423</v>
-      </c>
-      <c r="E13">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>43</v>
-      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="3"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1246,12 +1295,12 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>2</v>
@@ -1260,7 +1309,7 @@
         <v>9</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1310,7 +1359,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1335,7 +1384,7 @@
   <sheetData>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -1346,10 +1395,10 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1396,7 +1445,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/Labs/DAT215_1/Lab_Solution/Normalization Solution.xlsx
+++ b/Labs/DAT215_1/Lab_Solution/Normalization Solution.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7620" tabRatio="818"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7620" tabRatio="818" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
   <si>
     <t>OrderID</t>
   </si>
@@ -296,6 +296,54 @@
   </si>
   <si>
     <t>Phone 2</t>
+  </si>
+  <si>
+    <r>
+      <t>OrderProducts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> table</t>
+    </r>
+  </si>
+  <si>
+    <t>ProductID</t>
+  </si>
+  <si>
+    <t>BA-3827</t>
+  </si>
+  <si>
+    <t>BA-2349</t>
+  </si>
+  <si>
+    <t>BA-2908</t>
+  </si>
+  <si>
+    <r>
+      <t>Products</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> table</t>
+    </r>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>BA-2903</t>
   </si>
 </sst>
 </file>
@@ -348,7 +396,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -357,6 +405,7 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,7 +722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
@@ -1279,10 +1328,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:D9"/>
+  <dimension ref="A2:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1293,12 +1342,12 @@
     <col min="4" max="4" width="20.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
@@ -1312,7 +1361,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>101</v>
       </c>
@@ -1326,7 +1375,7 @@
         <v>25895</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>163</v>
       </c>
@@ -1340,7 +1389,7 @@
         <v>30148</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>302</v>
       </c>
@@ -1354,16 +1403,183 @@
         <v>34423</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C7" s="3"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>39</v>
       </c>
     </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14" s="3">
+        <v>42371</v>
+      </c>
+      <c r="C14">
+        <v>101</v>
+      </c>
+      <c r="E14" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="8">
+        <v>12.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15" s="3">
+        <v>42371</v>
+      </c>
+      <c r="C15">
+        <v>163</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+      <c r="F15" s="8">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" s="3">
+        <v>42372</v>
+      </c>
+      <c r="C16">
+        <v>302</v>
+      </c>
+      <c r="E16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="8">
+        <v>5.99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2</v>
+      </c>
+      <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Labs/DAT215_1/Lab_Solution/Normalization Solution.xlsx
+++ b/Labs/DAT215_1/Lab_Solution/Normalization Solution.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7620" tabRatio="818" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7620" tabRatio="818" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Raw Data" sheetId="1" r:id="rId1"/>
     <sheet name="Normalized to 1NF" sheetId="10" r:id="rId2"/>
     <sheet name="Normalized to 2NF" sheetId="11" r:id="rId3"/>
-    <sheet name="Normalized to 3NF" sheetId="12" r:id="rId4"/>
+    <sheet name="Normalized to 3NF" sheetId="14" r:id="rId4"/>
     <sheet name="Denormalized" sheetId="13" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="49">
   <si>
     <t>OrderID</t>
   </si>
@@ -233,21 +233,6 @@
     <t>SalesAmount column added</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Orders </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>table</t>
-    </r>
-  </si>
-  <si>
     <t>Product (Key)</t>
   </si>
   <si>
@@ -299,7 +284,7 @@
   </si>
   <si>
     <r>
-      <t>OrderProducts</t>
+      <t xml:space="preserve">OrderDetails </t>
     </r>
     <r>
       <rPr>
@@ -309,41 +294,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> table</t>
+      <t>table</t>
     </r>
   </si>
   <si>
-    <t>ProductID</t>
-  </si>
-  <si>
-    <t>BA-3827</t>
-  </si>
-  <si>
-    <t>BA-2349</t>
-  </si>
-  <si>
-    <t>BA-2908</t>
-  </si>
-  <si>
-    <r>
-      <t>Products</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> table</t>
-    </r>
-  </si>
-  <si>
-    <t>Price</t>
-  </si>
-  <si>
-    <t>BA-2903</t>
+    <t xml:space="preserve">CustomerID </t>
   </si>
 </sst>
 </file>
@@ -396,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -405,7 +360,6 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,10 +704,10 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>9</v>
@@ -885,7 +839,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="H18" sqref="A1:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -992,7 +946,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
         <v>29</v>
@@ -1003,13 +957,13 @@
         <v>32</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>14</v>
@@ -1154,10 +1108,307 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C23"/>
+  <dimension ref="A2:F29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>42371</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6">
+        <v>25895</v>
+      </c>
+      <c r="F4">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>42371</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="6">
+        <v>30148</v>
+      </c>
+      <c r="F5">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>42372</v>
+      </c>
+      <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="6">
+        <v>34423</v>
+      </c>
+      <c r="F6">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="3"/>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22">
+        <v>12.99</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>3545435413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>6</v>
+      </c>
+      <c r="B23">
+        <v>1.5</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>36465465436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24">
+        <v>5.99</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>34643434</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>8</v>
+      </c>
+      <c r="B25">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>34134213242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="D26" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26">
+        <v>35432434</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="D22" sqref="D22:D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1166,420 +1417,311 @@
     <col min="2" max="2" width="20.7109375" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B1" s="3"/>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3">
+        <v>42371</v>
+      </c>
+      <c r="C4">
+        <v>101</v>
+      </c>
+      <c r="E4" s="6"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" s="3">
+        <v>42371</v>
+      </c>
+      <c r="C5">
+        <v>163</v>
+      </c>
+      <c r="E5" s="6"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" s="3">
+        <v>42372</v>
+      </c>
+      <c r="C6">
+        <v>302</v>
+      </c>
+      <c r="E6" s="6"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="E11">
+        <v>101</v>
+      </c>
+      <c r="F11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="6">
+        <v>25895</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>163</v>
+      </c>
+      <c r="F12" t="s">
+        <v>4</v>
+      </c>
+      <c r="G12" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="6">
+        <v>30148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>302</v>
+      </c>
+      <c r="F13" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13" s="6">
+        <v>34423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>7</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="3"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="3"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="3"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="3"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="B20" s="3"/>
+      <c r="D20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>13</v>
       </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="B22">
+        <v>12.99</v>
+      </c>
+      <c r="D22">
+        <v>101</v>
+      </c>
+      <c r="E22">
+        <v>3545435413</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="B23">
+        <v>1.5</v>
+      </c>
+      <c r="D23">
+        <v>101</v>
+      </c>
+      <c r="E23">
+        <v>36465465436</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B24">
+        <v>5.99</v>
+      </c>
+      <c r="D24">
+        <v>163</v>
+      </c>
+      <c r="E24">
+        <v>34643434</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B11" s="3"/>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B13" s="3"/>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16">
-        <v>12.99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18">
-        <v>5.99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19">
+      <c r="B25">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="3"/>
+      <c r="D25">
+        <v>163</v>
+      </c>
+      <c r="E25">
+        <v>34134213242</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="3"/>
+      <c r="D26">
+        <v>302</v>
+      </c>
+      <c r="E26">
+        <v>35432434</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="3"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F26"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.5703125" customWidth="1"/>
-    <col min="3" max="3" width="22.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>101</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="6">
-        <v>25895</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>163</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="6">
-        <v>30148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>302</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="6">
-        <v>34423</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C7" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1</v>
-      </c>
-      <c r="B14" s="3">
-        <v>42371</v>
-      </c>
-      <c r="C14">
-        <v>101</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
-      </c>
-      <c r="F14" s="8">
-        <v>12.99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>2</v>
-      </c>
-      <c r="B15" s="3">
-        <v>42371</v>
-      </c>
-      <c r="C15">
-        <v>163</v>
-      </c>
-      <c r="E15" t="s">
-        <v>50</v>
-      </c>
-      <c r="F15" s="8">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>3</v>
-      </c>
-      <c r="B16" s="3">
-        <v>42372</v>
-      </c>
-      <c r="C16">
-        <v>302</v>
-      </c>
-      <c r="E16" t="s">
-        <v>51</v>
-      </c>
-      <c r="F16" s="8">
-        <v>5.99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="8">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>1</v>
-      </c>
-      <c r="B22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2</v>
-      </c>
-      <c r="B23" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2</v>
-      </c>
-      <c r="B24" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2</v>
-      </c>
-      <c r="B25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>3</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
